--- a/DataColPV2022.xlsx
+++ b/DataColPV2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Desktop\42\Work\Research\Election Forecasting\Colombia\Presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B61E5BA-4A50-49C6-AA81-A02691368B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D8BD5-B60E-419E-8D97-7894C5310D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A73FA321-0394-4C09-91A5-62A919A04DB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A73FA321-0394-4C09-91A5-62A919A04DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Polls" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
   <si>
     <t>Pollster</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.lasillavacia.com/historias/silla-nacional/el-semaforo-de-las-encuestadoras-electorales-en-colombia/</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -201,6 +198,12 @@
   </si>
   <si>
     <t>https://www.eltiempo.com/elecciones-2022/presidencia/encuesta-de-guarumo-petro-y-fico-favoritos-para-primera-vuelta-668979</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/elecciones-2022/presidencia/encuesta-presidencial-petro-se-mantiene-primero-fico-segundo-671401</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/historias/silla-nacional/el-semaforo-de-las-encuestadoras-actualizado-de-cara-a-primera-vuelta/</t>
   </si>
 </sst>
 </file>
@@ -256,7 +259,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -595,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C5C6E-5314-4C77-BA7E-D8F9FFADF252}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -685,47 +691,47 @@
       <c r="C2" s="1">
         <v>1236</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>0.37</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>0.19</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="7">
         <v>0.1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="7">
         <v>0.11</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="7">
         <v>0.02</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="J2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>2E-3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="7">
         <v>0.16</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="N2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="7">
         <v>0.05</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -738,47 +744,47 @@
       <c r="C3" s="1">
         <v>2143</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>0.32</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>0.23</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>0.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="7">
         <v>0.1</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="7">
         <v>0.03</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="J3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="7">
         <v>0.01</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="7">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="7">
         <v>0.05</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="7">
         <v>0.02</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="7">
         <v>0.13</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -791,47 +797,47 @@
       <c r="C4" s="1">
         <v>1000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>0.33500000000000002</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>0.221</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="7">
         <v>0.1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="7">
         <v>2.4E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="7">
         <v>0.01</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="1">
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="7">
         <v>0.22</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -844,47 +850,47 @@
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="7">
         <v>0.32400000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>0.27600000000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="7">
         <v>0.123</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="7">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="K5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="7">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="N5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -897,47 +903,47 @@
       <c r="C6" s="1">
         <v>4206</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="7">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>0.245</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="7">
         <v>0.1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="7">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="7">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="7">
         <v>6.2E-2</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
+      <c r="P6" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -950,47 +956,47 @@
       <c r="C7" s="1">
         <v>1865</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>0.34</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>0.25</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="7">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="N7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="7">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1003,47 +1009,47 @@
       <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.34399999999999997</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>0.28699999999999998</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>0.108</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>0.107</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
         <v>2.3E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>0.01</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="K8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="7">
         <v>0.121</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="N8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1056,47 +1062,47 @@
       <c r="C9" s="1">
         <v>1965</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>0.34</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>0.23</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="7">
         <v>0.09</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="7">
         <v>0.12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
         <v>0.02</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="7">
         <v>0.01</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="7">
         <v>0</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="7">
         <v>0.04</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="7">
         <v>0.02</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="7">
         <v>0.12</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>40</v>
+      <c r="P9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1109,47 +1115,47 @@
       <c r="C10" s="1">
         <v>3064</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>0.218</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="7">
         <v>0.115</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="7">
         <v>0.01</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="7">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="7">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1162,47 +1168,47 @@
       <c r="C11" s="1">
         <v>1000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="7">
         <v>0.32900000000000001</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>0.27200000000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>0.1</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="7">
         <v>0.18</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="N11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1215,47 +1221,47 @@
       <c r="C12" s="1">
         <v>1000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>0.315</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>0.29899999999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="7">
         <v>0.104</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="7">
         <v>0.01</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="L12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="7">
         <v>0.16700000000000001</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="N12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1268,47 +1274,47 @@
       <c r="C13" s="1">
         <v>4599</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="7">
         <v>1.4E-2</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="7">
         <v>0.38</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>0.23799999999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="7">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
@@ -1321,47 +1327,47 @@
       <c r="C14" s="3">
         <v>2000</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>2.1899999999999999E-2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>0.415072</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>0.25418400000000002</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>6.1879999999999998E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="7">
         <v>0.132328</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="7">
         <v>4.7599999999999995E-3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="7">
         <v>1.4279999999999999E-2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="7">
         <v>1.0471999999999999E-2</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="7">
         <v>4.7599999999999995E-3</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="7">
         <v>5.4264E-2</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
@@ -1374,47 +1380,47 @@
       <c r="C15" s="3">
         <v>1000</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="7">
         <v>0.33800000000000002</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="7">
         <v>0.316</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="7">
         <v>1.6E-2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="7">
         <v>0.01</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="7">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="N15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
@@ -1427,46 +1433,152 @@
       <c r="C16" s="3">
         <v>2132</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <v>0.30599999999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <v>0.124</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="7">
         <v>2E-3</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="3">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44684</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="G17" s="7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44685</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1232</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1485,6 +1597,8 @@
     <hyperlink ref="Q14" r:id="rId11" xr:uid="{8301D936-16EC-47A3-BEBE-7A0A0E87373B}"/>
     <hyperlink ref="Q15" r:id="rId12" xr:uid="{F3F02D4E-E2B9-459F-8180-B59D8B7A8873}"/>
     <hyperlink ref="Q16" r:id="rId13" xr:uid="{B88CAC42-D604-4561-BB0B-0B6BD81437C4}"/>
+    <hyperlink ref="Q17" r:id="rId14" xr:uid="{FC20A79B-F9C1-4586-8610-97A988107D57}"/>
+    <hyperlink ref="Q18" r:id="rId15" xr:uid="{74E5A4C5-5F8D-45A5-A45E-8A828A8CC8D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1643,13 +1757,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E1530-E833-40A5-998C-B7AE91806933}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="97.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1664,29 +1778,32 @@
       <c r="A2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
-        <v>31</v>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44683</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="7"/>
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2775A042-EEA6-4AE2-B64E-1AD5FC165106}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1705,26 +1822,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="7">
+      <c r="B1" s="10">
         <v>2002</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10">
         <v>2006</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10">
         <v>2010</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10">
         <v>2014</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10">
         <v>2018</v>
       </c>
-      <c r="K1" s="7"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1749,12 +1866,12 @@
         <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>149123</v>
@@ -1775,12 +1892,12 @@
         <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>48966</v>
@@ -1800,7 +1917,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <f>SUM(B3:B4)</f>
@@ -1885,7 +2002,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="5">
         <f>AVERAGE(C6,E6,G6,I6,K6)</f>

--- a/DataColPV2022.xlsx
+++ b/DataColPV2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive\Desktop\42\Work\Research\Election Forecasting\Colombia\Presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79D8BD5-B60E-419E-8D97-7894C5310D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88421CFC-FB2D-47BA-9791-3FE7144B5BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A73FA321-0394-4C09-91A5-62A919A04DB0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A73FA321-0394-4C09-91A5-62A919A04DB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Polls" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
   <si>
     <t>Pollster</t>
   </si>
@@ -259,7 +259,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4C5C6E-5314-4C77-BA7E-D8F9FFADF252}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,22 +715,22 @@
       <c r="J2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>2E-3</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="10">
         <v>0.16</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="7">
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="10">
         <v>0.05</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="Q2" s="9" t="s">
@@ -765,22 +768,22 @@
       <c r="J3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>0.01</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>0</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="10">
         <v>0.05</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>0.02</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>0.13</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="Q3" s="9" t="s">
@@ -818,22 +821,22 @@
       <c r="J4" s="7">
         <v>0.01</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="7">
+      <c r="K4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="10">
         <v>0.22</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="7" t="s">
+      <c r="N4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="9" t="s">
@@ -871,22 +874,22 @@
       <c r="J5" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="K5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="N5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q5" s="9" t="s">
@@ -924,22 +927,22 @@
       <c r="J6" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="10">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="10">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="10">
         <v>6.2E-2</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="10" t="s">
         <v>35</v>
       </c>
       <c r="Q6" s="9" t="s">
@@ -977,22 +980,22 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="10">
         <v>0.10299999999999999</v>
       </c>
-      <c r="N7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="N7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="10">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="9" t="s">
@@ -1030,22 +1033,22 @@
       <c r="J8" s="7">
         <v>0.01</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="7">
+      <c r="K8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="10">
         <v>0.121</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="7" t="s">
+      <c r="N8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q8" s="9" t="s">
@@ -1083,22 +1086,22 @@
       <c r="J9" s="7">
         <v>0.01</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="10">
         <v>0</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="10">
         <v>0.04</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="10">
         <v>0.02</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="10">
         <v>0.12</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="9" t="s">
@@ -1136,22 +1139,22 @@
       <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="K10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="10">
         <v>1.4E-2</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="10">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="9" t="s">
@@ -1189,22 +1192,22 @@
       <c r="J11" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="K11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="10">
         <v>0.18</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="7" t="s">
+      <c r="N11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q11" s="9" t="s">
@@ -1242,22 +1245,22 @@
       <c r="J12" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="10">
         <v>0.01</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="L12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="10">
         <v>0.16700000000000001</v>
       </c>
-      <c r="N12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="7" t="s">
+      <c r="N12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="9" t="s">
@@ -1295,22 +1298,22 @@
       <c r="J13" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="10">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="10">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="P13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="Q13" s="9" t="s">
@@ -1348,22 +1351,22 @@
       <c r="J14" s="7">
         <v>1.4279999999999999E-2</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="10">
         <v>1.0471999999999999E-2</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="10">
         <v>4.7599999999999995E-3</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="10">
         <v>5.4264E-2</v>
       </c>
-      <c r="N14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="N14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="10">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="Q14" s="9" t="s">
@@ -1401,22 +1404,22 @@
       <c r="J15" s="7">
         <v>1.2E-2</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="10">
         <v>0.01</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="L15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="7" t="s">
+      <c r="N15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="9" t="s">
@@ -1454,22 +1457,22 @@
       <c r="J16" s="7">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="10">
         <v>2E-3</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="10">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="7">
+      <c r="N16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="10">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="9" t="s">
@@ -1507,22 +1510,22 @@
       <c r="J17" s="7">
         <v>0.01</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="10">
         <v>0.01</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="L17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="10">
         <v>0.14199999999999999</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="N17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="Q17" s="9" t="s">
@@ -1560,26 +1563,79 @@
       <c r="J18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="10">
         <v>0.13</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="7">
+      <c r="N18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="10">
         <v>0.06</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44691</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="10">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="G19" s="10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.107</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0.112</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1599,6 +1655,7 @@
     <hyperlink ref="Q16" r:id="rId13" xr:uid="{B88CAC42-D604-4561-BB0B-0B6BD81437C4}"/>
     <hyperlink ref="Q17" r:id="rId14" xr:uid="{FC20A79B-F9C1-4586-8610-97A988107D57}"/>
     <hyperlink ref="Q18" r:id="rId15" xr:uid="{74E5A4C5-5F8D-45A5-A45E-8A828A8CC8D5}"/>
+    <hyperlink ref="Q19" r:id="rId16" xr:uid="{DB69D52A-4A49-45E7-8C0C-924C2A797E29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1757,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8E1530-E833-40A5-998C-B7AE91806933}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1788,14 +1845,14 @@
       </c>
       <c r="B3" s="2">
         <f ca="1">TODAY()</f>
-        <v>44692</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1822,26 +1879,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="10">
+      <c r="B1" s="11">
         <v>2002</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11">
         <v>2006</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11">
         <v>2010</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11">
         <v>2014</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11">
         <v>2018</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
